--- a/public/upload/test.xlsx
+++ b/public/upload/test.xlsx
@@ -1,41 +1,249 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="vintage inspired" sheetId="1" r:id="rId1"/>
+    <sheet name="beach" sheetId="2" r:id="rId2"/>
+    <sheet name="covered" sheetId="3" r:id="rId3"/>
+    <sheet name="sweetheart &amp; ball gown" sheetId="4" r:id="rId4"/>
+    <sheet name="bateau &amp; mermaid" sheetId="5" r:id="rId5"/>
+    <sheet name="sweetheart &amp; mermaid" sheetId="6" r:id="rId6"/>
+    <sheet name="less is more" sheetId="7" r:id="rId7"/>
+    <sheet name="ruffles" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>WWD52994</t>
+  </si>
+  <si>
+    <t>WWD81387</t>
+  </si>
+  <si>
+    <t>WWD89203</t>
+  </si>
+  <si>
+    <t>WWD16227</t>
+  </si>
+  <si>
+    <t>WWD45119</t>
+  </si>
+  <si>
+    <t>WWD95429</t>
+  </si>
+  <si>
+    <t>WWD85297</t>
+  </si>
+  <si>
+    <t>WWD64875</t>
+  </si>
+  <si>
+    <t>WWD41261</t>
+  </si>
+  <si>
+    <t>WWD25308</t>
+  </si>
+  <si>
+    <t>WWD20475</t>
+  </si>
+  <si>
+    <t>WWD78816</t>
+  </si>
+  <si>
+    <t>WWD98218</t>
+  </si>
+  <si>
+    <t>WWD84035</t>
+  </si>
+  <si>
+    <t>WWD83904</t>
+  </si>
+  <si>
+    <t>WWD34797</t>
+  </si>
+  <si>
+    <t>WWD24542</t>
+  </si>
+  <si>
+    <t>WWD96254</t>
+  </si>
+  <si>
+    <t>WWD87554</t>
+  </si>
+  <si>
+    <t>WWD64392</t>
+  </si>
+  <si>
+    <t>WWD16162</t>
+  </si>
+  <si>
+    <t>WWD16899</t>
+  </si>
+  <si>
+    <t>WWD54303</t>
+  </si>
+  <si>
+    <t>WWD69449</t>
+  </si>
+  <si>
+    <t>WWD78207</t>
+  </si>
+  <si>
+    <t>WWD87544</t>
+  </si>
+  <si>
+    <t>WWD43094</t>
+  </si>
+  <si>
+    <t>WWD71158</t>
+  </si>
+  <si>
+    <t>WWD33720</t>
+  </si>
+  <si>
+    <t>WWD61552</t>
+  </si>
+  <si>
+    <t>WWD82170</t>
+  </si>
+  <si>
+    <t>WWD62591</t>
+  </si>
+  <si>
+    <t>WWD93691</t>
+  </si>
+  <si>
+    <t>WWD73536</t>
+  </si>
+  <si>
+    <t>WWD57525</t>
+  </si>
+  <si>
+    <t>WWD35501</t>
+  </si>
+  <si>
+    <t>WWD91086</t>
+  </si>
+  <si>
+    <t>WWD75472</t>
+  </si>
+  <si>
+    <t>WWD49269</t>
+  </si>
+  <si>
+    <t>WWD83528</t>
+  </si>
+  <si>
+    <t>WWD66297</t>
+  </si>
+  <si>
+    <t>WWD84707</t>
+  </si>
+  <si>
+    <t>WWD79143</t>
+  </si>
+  <si>
+    <t>WWD86324</t>
+  </si>
+  <si>
+    <t>WWD39145</t>
+  </si>
+  <si>
+    <t>WWD90184</t>
+  </si>
+  <si>
+    <t>WWD26331</t>
+  </si>
+  <si>
+    <t>WWD74167</t>
+  </si>
+  <si>
+    <t>WWD49985</t>
+  </si>
+  <si>
+    <t>WWD96332</t>
+  </si>
+  <si>
+    <t>WWD90929</t>
+  </si>
+  <si>
+    <t>WWD32028</t>
+  </si>
+  <si>
+    <t>WWD87685</t>
+  </si>
+  <si>
+    <t>WWD38085</t>
+  </si>
+  <si>
+    <t>WWD72786</t>
+  </si>
+  <si>
+    <t>WWD97940</t>
+  </si>
+  <si>
+    <t>WWD50383</t>
+  </si>
+  <si>
+    <t>WWD13724</t>
+  </si>
+  <si>
+    <t>WWD70757</t>
+  </si>
+  <si>
+    <t>WWD70813</t>
+  </si>
+  <si>
+    <t>WWD52442</t>
+  </si>
+  <si>
+    <t>WWD35536</t>
+  </si>
+  <si>
+    <t>WWD81293</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,30 +262,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -151,6 +376,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,6 +411,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,145 +587,445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B1" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42401</v>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B1" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>42370</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42401</v>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>